--- a/biology/Zoologie/Aellopos_tantalus/Aellopos_tantalus.xlsx
+++ b/biology/Zoologie/Aellopos_tantalus/Aellopos_tantalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aellopos tantalus est une espèce d'insectes lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae, de la tribu des Philampelini et du genre Aellopos.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie de 45 à 57 millimètres. Il est plus petit qu’Aellopos fadus ou Aellopos titan auxquels il ressemble. Le corps est brun rougeâtre avec une large bande blanche sur l'abdomen. La partie supérieure de la partie antérieure est brun rougeâtre avec une tache noire et trois taches blanches près de la zone marginale grise. Une traînée pâle s'étend de la cellule au bord intérieur de l'aile. Le dessus des ailes postérieures est brun foncé.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Distribution
 L'espèce se rencontre principalement en Amérique centrale du Mexique au Venezuela, mais aussi au nord en Floride, dans les Antilles, au sud en Colombie, en Équateur, au Surinam et en Amazonie.
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les adultes volent toute l'année, ils se nourrissent de nectar de différentes fleurs, dont Eugenia axillaris, Dracaena fragrans et Ernodea littoralis.
 Les chenilles se nourrissent de diverses espèces de rubiacées notamment Casasia clusiifolia et Randia aculeata.
@@ -607,18 +625,88 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Aellopos tantalus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx tantalus[1].
-Synonymie
-Sphinx tantalus Linnaeus, 1758 Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Aellopos tantalus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Sphinx tantalus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aellopos_tantalus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_tantalus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx tantalus Linnaeus, 1758 Protonyme
 Sphinx ixion Linnaeus, 1758
 Sphinx tantalus zonata Drury, 1773
 Sphinx terpunctata Goeze, 1780
-Macroglossa sisyphus Burmeister, 1855[2]
-Liste des sous-espèces
-Aellopos tantalus tantalus
-Aellopos tantalus zonata (Drury, 1773)[3] (St. Kitts et Mexique)</t>
+Macroglossa sisyphus Burmeister, 1855</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aellopos_tantalus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aellopos_tantalus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aellopos tantalus tantalus
+Aellopos tantalus zonata (Drury, 1773) (St. Kitts et Mexique)</t>
         </is>
       </c>
     </row>
